--- a/gams/res_sum_Q_outrO_RA.xlsx
+++ b/gams/res_sum_Q_outrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA80F53B-0C45-4800-B812-37C2C291DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D0FF3-3CA1-4AAB-B3A4-BC0ACFC0DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5010B1F8-E926-472F-8F08-E6524A360B2A}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{5010B1F8-E926-472F-8F08-E6524A360B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>64.605499999999907</v>
+        <v>68.39999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_outrO_RA.xlsx
+++ b/gams/res_sum_Q_outrO_RA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D0FF3-3CA1-4AAB-B3A4-BC0ACFC0DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F84A356-4B1B-43B6-A6AC-D1435AA3DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{5010B1F8-E926-472F-8F08-E6524A360B2A}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5010B1F8-E926-472F-8F08-E6524A360B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>68.39999999999992</v>
+        <v>11.491199999999994</v>
       </c>
     </row>
   </sheetData>

--- a/gams/res_sum_Q_outrO_RA.xlsx
+++ b/gams/res_sum_Q_outrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F84A356-4B1B-43B6-A6AC-D1435AA3DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD308D4-B31E-4B99-8C8B-D1940D74DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{5010B1F8-E926-472F-8F08-E6524A360B2A}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{74CE227C-26B2-497F-B6C3-4CE105418E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50567A6-A467-4DFA-ADBF-8E0DF49D6195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F611EBB3-336B-42EF-A9BB-7BE1CA10F634}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>11.491199999999994</v>
+        <v>57.781999999999996</v>
       </c>
     </row>
   </sheetData>
